--- a/Translation sheets/Translation-german.xlsx
+++ b/Translation sheets/Translation-german.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\SteamLibrary\SteamApps\common\RimWorld\Mods\PrisonLabor\Translation sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9540" windowHeight="4470"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>German</t>
-  </si>
-  <si>
     <t>Tutorial - Introduction</t>
   </si>
   <si>
@@ -36,73 +33,22 @@
     <t>Prison labor</t>
   </si>
   <si>
-    <t xml:space="preserve">Gefängnisarbeit
-</t>
-  </si>
-  <si>
     <t>Tutorial Text - Indroduction</t>
   </si>
   <si>
-    <t>You can force your prisoners to labor.\n\nTo do so you must select "Work" option from "Prisoner" pane\n\nAlso, you must ensure your prisoners are fed and rested. You can check this in 'Needs' tab.\n\nPrisoners will work on orders and bills that are in allowed area.\nThey can only cook, mine, cut plants, haul and clean.\n\nHINT: If you put a stove in a prison cell make sure they can reach raw food.\n\nHINT: You can let prioners moving through doors by leaving them open.</t>
-  </si>
-  <si>
-    <t>Du kannst deine Gefangenen zum Arbeiten zwingen.\n\n Um dies zu tun, musst du die Option "Arbeiten" vom Reiter "Gefangener" auswählen.\n\nDu musst auserdem darauf achten, dass deine Gefangenen genährt und ausgeruht sind. Du kannst das im Reiter "Bedürfnisse" nachschauen.\n\nGefangene werden Befehle ausführen und Aufgaben erfüllen, die sich in der erlaubten Zone befinden.\nGefangene können nur kochen, Gestein und Erze abbauen, Pflanzen schneiden, Gegenstände herstellen, transportieren und Reinigen.\n\HINWEIS: Wenn du einen Herd in einer Gefängniszelle plazierst, achte darauf, dass sie auch rohes Essen erreichen können.</t>
-  </si>
-  <si>
-    <t>Tutorial - Laziness</t>
-  </si>
-  <si>
-    <t>Tutorial Title - Laziness</t>
-  </si>
-  <si>
-    <t>Lazy Prisoner</t>
-  </si>
-  <si>
-    <t>Faule Gefangene</t>
-  </si>
-  <si>
-    <t>Tutorial Text - Laziness</t>
-  </si>
-  <si>
-    <t>One of yours prisoners got lazy.\nHe won't work any longer, unless he get motivated.\nMake sure you have enough wardens (check "Work" tab), or draft one of your colonist and order him to stand around your prisoners.</t>
-  </si>
-  <si>
-    <t>Einer deiner Gefangenen ist faul geworden.\nEr wird nicht länger arbeiten, solange er nicht motiviert wird.\nAchte darauf, dass du genug Aufseher hast (schau im Reite "Arbeit" nach) oder ernenne einen deiner Kolonisten und befiehl ihn neben deinen Gefangenen zu stehen.</t>
-  </si>
-  <si>
     <t>Prison Interaction Option (next to "No Interaction")</t>
   </si>
   <si>
     <t>Force to work</t>
   </si>
   <si>
-    <t>Zum arbeiten zwingen</t>
-  </si>
-  <si>
     <t>Lazy prisoner message (on top left corner pointing to lazy prisoner)</t>
   </si>
   <si>
-    <t>Your prioner got lazy!</t>
-  </si>
-  <si>
-    <t>Dein Gefangener wurde faul!</t>
-  </si>
-  <si>
     <t>Steam Workshop</t>
   </si>
   <si>
     <t>Steam Workshop - Description</t>
-  </si>
-  <si>
-    <t>[h1]Description[/h1]
-This mod force prisoners to work if Prisoner Interaction is set to "Work".
-Prisoner must be fed, and rested, or he(she) will refuse to work. Currently prisoners can only cook, mine, cut plants, craft, haul, and clean.
-Attention! He can run away if he mine a way out.
-Prisoners need to be watched by wardens, or they will get lazy.
-This is early alpha version, and it can be buggy.</t>
-  </si>
-  <si>
-    <t>Steam Workshop - Compatibility</t>
   </si>
   <si>
     <t>[*] Hinzufügen von Arbeitszeiten usw.
@@ -110,51 +56,208 @@
 [/list]</t>
   </si>
   <si>
-    <t>Steam Workshop - Description</t>
+    <t>Tutorial - Growing by prisoners</t>
+  </si>
+  <si>
+    <t>Tutorial - Prison labor management</t>
+  </si>
+  <si>
+    <t>Tutorial - Motivation</t>
+  </si>
+  <si>
+    <t>Your prisoner stopped working!</t>
+  </si>
+  <si>
+    <t>Steam Workshop - "Special thanks to:" (List of ppl that contributes to mod)</t>
+  </si>
+  <si>
+    <t>Special thanks to:</t>
+  </si>
+  <si>
+    <t>Tutorial - Timetable</t>
+  </si>
+  <si>
+    <t>Motivation bar</t>
+  </si>
+  <si>
+    <t>Motivation bar - description</t>
+  </si>
+  <si>
+    <t>Labor area tool - name</t>
+  </si>
+  <si>
+    <t>Labor area tool - description</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Settings - allowed worktypes option</t>
+  </si>
+  <si>
+    <t>Settings - allow all (worktypes) (checkbox under allowed worktypes)</t>
+  </si>
+  <si>
+    <t>Settings - motivation checkbox</t>
+  </si>
+  <si>
+    <t>Settings - motivation checkbox - tooltip</t>
+  </si>
+  <si>
+    <t>Settings - enabled worktypes (under allowed worktypes)</t>
+  </si>
+  <si>
+    <t>You can force your prisoners to labor.\n\nTo do so you must select "Force to work" option from "Prisoner" pane\n\nPrisoners will work on orders and bills that are in allowed area. Make sure prisoners can reach their work.\n\nThey can only cook, mine, cut plants, haul, clean, or grow plants, that not require special skills.\n\nPrisoner sometimes refuses to work. Reasons can be different. He can be injured, hungry, tired, or not motivated enough.\n\nHINT: You can assign work types in "Work" pane.\n\nHINT: If you put a stove in a prison cell make sure they can reach raw food.\n\nHINT: You can let prioners moving through doors by leaving them open.</t>
+  </si>
+  <si>
+    <t>Tutorial Title - Motivation</t>
+  </si>
+  <si>
+    <t>Tutorial Text - Motivation</t>
+  </si>
+  <si>
+    <t>Motivating prisoners</t>
+  </si>
+  <si>
+    <t>One of yours prisoners stopped working.\nHe won't work any longer, unless he gets motivated.\n\nYou can check status of motivation in "Needs" tab.\n\nMake sure you have enough wardens (check "Work" tab), or draft one of your colonist and order him to stand around your prisoners.\n\nLow motivation of prisoners can lead to revolts.</t>
+  </si>
+  <si>
+    <t>Tutorial Title - Growing by prisoners</t>
+  </si>
+  <si>
+    <t>Tutorial Text - Growing by prisoenrs</t>
+  </si>
+  <si>
+    <t>Growing by prisoners</t>
+  </si>
+  <si>
+    <t>Prisoners can only grow plants that don't require any special skills like potato or cotton. They can however gather any plant that is ordered to harvest.</t>
+  </si>
+  <si>
+    <t>Tutorial Text - Labor management</t>
+  </si>
+  <si>
+    <t>Tutorial Title - Labor management</t>
+  </si>
+  <si>
+    <t>Prison labor management</t>
+  </si>
+  <si>
+    <t>You can manage your prison labor in several ways.\n\nYou can assign work types to prisoners by accessing "Work" tab.\n\nYou can restrict when prisoners should work, rest, or sleep by accessing "Restrict" tab.\n\nYou can restrict work to "Prisoners only". For work orders that covers area you can choose "Labor area" tool from "Architect"-&gt;"Orders" panel.\nFor bills there is an option "Prisoners only".</t>
+  </si>
+  <si>
+    <t>Tutorial Text - Timetable</t>
+  </si>
+  <si>
+    <t>Tutorial Title - Timetable</t>
+  </si>
+  <si>
+    <t>Prisoners time restrictions</t>
+  </si>
+  <si>
+    <t>You can make time restrictions for prisoners.\n\n"Work" time will force them to work even when they're hungry or tired.\n\n"Joy" time will let them rest from job and get motivation bonus.\n\n"Sleep" time will force them to stay in prison cell.\n\n"Anything" is default setting.</t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>Motivation represents how motivated to work is prisoner. Motivation can be improved by colonists standing nearby.\n\nWarden response threshold: {0}%\nStopping work threshold: {1}%</t>
+  </si>
+  <si>
+    <t>Labor area</t>
+  </si>
+  <si>
+    <t>Marks area to "Prisoners only", so colonists won't work on orders in that area.</t>
+  </si>
+  <si>
+    <t>Prisoners only</t>
+  </si>
+  <si>
+    <t>Prisoners only checkbox - label</t>
+  </si>
+  <si>
+    <t>Prisoners only checkbox - tooltip</t>
+  </si>
+  <si>
+    <t>When checked colonist won't work on that bill.</t>
+  </si>
+  <si>
+    <t>Allowed work types:</t>
+  </si>
+  <si>
+    <t>allow all</t>
+  </si>
+  <si>
+    <t>enabled:</t>
+  </si>
+  <si>
+    <t>Motivation mechanics</t>
+  </si>
+  <si>
+    <t>When checked prisoners need to be motivated.</t>
+  </si>
+  <si>
+    <t>Steam Workshop - Alpha note</t>
+  </si>
+  <si>
+    <t>Steam Workshop - Beta note</t>
+  </si>
+  <si>
+    <t>[h1]Alpha note[/h1]
+This is early alpha version! Some features can be changed, and there are many that will be added. There can be bugs or compatibility collisions.</t>
+  </si>
+  <si>
+    <t>[h1]Beta note[/h1]
+This is beta version. Some ascpects of mod still need to be balanced (like motivation). There can be still some bugs.</t>
+  </si>
+  <si>
+    <t>Steam Workshop - Download</t>
+  </si>
+  <si>
+    <t>Steam Workshop - To-do list</t>
+  </si>
+  <si>
+    <t>Steam Workshop - Alpha note in desc</t>
+  </si>
+  <si>
+    <t>Steam Workshop - Version</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>[h1]Description[/h1]
+This mod force prisoners to work. To enable this feature prisoners must have "Force to work" option checked ("Prisoner" tab). Prison labor needs management that consist:
+[list]
+[*] Motivation - prisoners need to be motivated by presence of colonists. Wardens have new job - supervising prisoners. [strike]Low motivation can lead to revolts.[/strike] [i]Revolts are not available yet.[/i]
+[*] Work assignment - prisoners that have option "Force to work" are added to "Work" tab.
+[*] [strike]Time restrictions - prisoners that have option "Force to work" are added to "Restrict" tab.[/strike] [i]Work in progress ...[/i]
+[*] Prison area - prisoners in order to work need to reach target. You can check "Hold open" option on doors.
+[*] [strike]"Prisoners only" tools - You can mark orders and bills by tools that exclude colonist from work.[/strike] [i]Work in progress ...[/i]
+[/list]</t>
+  </si>
+  <si>
+    <t>[h1]Alpha - Currently to make prisoners work you must meet these conditions[/h1]
+[list]
+[*] Prisoner is safe, and don't need medical assistance.
+[*] Prisoner don't need to recover from injury/sickness in bed.
+[*] Prisoner can't escape.
+[*] Prisoner can reach work (best way to do that is leaving open doors to work area).
+[*] Prisoner is fed, and rested.
+[*] Prisoner interaction is set to "Work" (no "Chat and Recruit", or "Friendly Chat").
+[*] Laziness bar in "Needs" tab is below 80%
+[/list]</t>
+  </si>
+  <si>
+    <t>[h1]Downloads[/h1]</t>
   </si>
   <si>
     <t>[h1]To-do list[/h1]
-[list]
-[*] Make prisoner laziness appear on "Needs" tab
-[*] Add translations
-[*] Customize mod to satisfy every user.
-[*] Add control time of work etc.
-[*] Change way of getting food by prisoner (currently RimWorld mechanics forcing prisoner to get to bed and wait for warden unless he is very very hungry) 
-[/list]</t>
-  </si>
-  <si>
-    <t>[h1]To-do list[/h1]
-[list]
-[*] Die Faulheit der Gefangenen im Reiter "Bedürfnisse" anzeigen lassen
-[*] Übersetzungen hinzufügen
-[*] Mod-Anpassung um jeden Benutzer zufrieden zu stellen
-[*] Hinzufügen von Arbeitszeiten usw.
-[*] Änderung der Essensversorgung bei Gefangenen ( momentan zwingt Rimworld die Gefangenen dazu sich ins Bett zu legen und auf einen Aufseher zu warten, der sie versorgt.
-[/list]</t>
-  </si>
-  <si>
-    <t>[h1]Beschreibung[/h1]
-Diese Mod zwingt deine Gefangenen zu arbeiten, wenn die Gefangenen-Interaktion auf "Zum arbeiten zwingen" gesetzt ist.
-Gefangene müssen satt und ausgeschlafen sein oder er/sie wird die Arbeit verweigern. Momentan können Gefangene nur kochen, Gestein und Erze abbauen, Pflanzen schneiden, Gegenstände herstellen, transportieren und reinigen.
-Achtung! Sie können fliehen, wenn sie einen Weg nach draußen graben.
-Gefangene müssen von Aufsehern beaufsichtigt werden, sonst werden sie faul.
-Dies ist eine frühe Alpha Version und es kann noch zu Fehlern kommen.</t>
-  </si>
-  <si>
-    <t>[h1]Compatibility[/h1]
-[list]
-[*] Works with mods that add Jobs of type cook/mine/craft/haul/clean like [url=http://steamcommunity.com/sharedfiles/filedetails/?id=942690136]Quarry[/url], or [url=http://steamcommunity.com/sharedfiles/filedetails/?id=952779481]Haulers Can Haul To Blueprints[/url]
-[*] Works with saves. You can enable, re-enable, disable this mod to all saves. (However disabling mod can throw errors, but they just saying they can't find tutorials, no harm)
-[*] No collisions with other mods detected yet. Only mods that changes thinking of humanlike should be considered (Humanlike_PostDuty handle).
-[/list]</t>
-  </si>
-  <si>
-    <t>[h1]Kompatibilität[h1]
-[list]
-[*] Funktioniert mit Mods die Tätigkeiten vom Typ Kochen/Bergbau/Herstellung/Transport/Reinigung wie zum Beispiel [url=http://steamcommunity.com/sharedfiles/filedetails/?id=942690136]Quarry[/url] oder [url=http://steamcommunity.com/sharedfiles/filedetails/?id=952779481]Haulers Can Haul To Blueprints[/url]
-[*] Funktioniert mit bereits vorhandenen Spielständen. Du kannst die Mod für alle Spielstände aktivieren, deaktivieren oder re-aktivieren (Wie immer kann bei der Deaktivierung eines Mods eine Fehlermeldung auftreten, diese besagt jedoch nur, dass ein Tutorial nicht mehr vorhanden ist, keine Sorge).
-[*] Momentan wurden noch keine Komplikationen mit anderen Mods gefunden. Nur Mods die das menschliche Verhalten verändern sollten berücksichtigt werden (Humanlike_PostDuty handle).
-[/list]</t>
+[url=]Full list[/url]
+[url=]Road to beta[/url]</t>
+  </si>
+  <si>
+    <t>German</t>
   </si>
 </sst>
 </file>
@@ -190,7 +293,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +325,14 @@
         <fgColor rgb="FFA9CD90"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -232,12 +341,249 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -246,56 +592,47 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -303,195 +640,123 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -832,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -850,177 +1115,503 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="31"/>
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="23"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="23"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17" t="s">
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:3" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="6" t="s">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="13"/>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C49" s="13"/>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="18"/>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="18"/>
+    </row>
+    <row r="56" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="18"/>
+    </row>
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="18"/>
+    </row>
+    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="11"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="18"/>
+    </row>
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="11"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="18"/>
+    </row>
+    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="11"/>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="18"/>
+    </row>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="11"/>
+    </row>
+    <row r="67" spans="1:3" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="26"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" ht="267" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="39">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A51:A67"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Translation sheets/Translation-german.xlsx
+++ b/Translation sheets/Translation-german.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9540" windowHeight="4470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
   <si>
     <t>English</t>
   </si>
@@ -259,12 +260,222 @@
   <si>
     <t>German</t>
   </si>
+  <si>
+    <t xml:space="preserve">Gefängnisarbeit
+</t>
+  </si>
+  <si>
+    <t>You can force your prisoners to labor.\n\nTo do so you must select "Work" option from "Prisoner" pane\n\nAlso, you must ensure your prisoners are fed and rested. You can check this in 'Needs' tab.\n\nPrisoners will work on orders and bills that are in allowed area.\nThey can only cook, mine, cut plants, haul and clean.\n\nHINT: If you put a stove in a prison cell make sure they can reach raw food.\n\nHINT: You can let prioners moving through doors by leaving them open.</t>
+  </si>
+  <si>
+    <t>Du kannst deine Gefangenen zum Arbeiten zwingen.\n\n Um dies zu tun, musst du die Option "Arbeiten" vom Reiter "Gefangener" auswählen.\n\nDu musst auserdem darauf achten, dass deine Gefangenen genährt und ausgeruht sind. Du kannst das im Reiter "Bedürfnisse" nachschauen.\n\nGefangene werden Befehle ausführen und Aufgaben erfüllen, die sich in der erlaubten Zone befinden.\nGefangene können nur kochen, Gestein und Erze abbauen, Pflanzen schneiden, Gegenstände herstellen, transportieren und Reinigen.\n\HINWEIS: Wenn du einen Herd in einer Gefängniszelle plazierst, achte darauf, dass sie auch rohes Essen erreichen können.</t>
+  </si>
+  <si>
+    <t>Tutorial - Laziness</t>
+  </si>
+  <si>
+    <t>Tutorial Title - Laziness</t>
+  </si>
+  <si>
+    <t>Lazy Prisoner</t>
+  </si>
+  <si>
+    <t>Faule Gefangene</t>
+  </si>
+  <si>
+    <t>Tutorial Text - Laziness</t>
+  </si>
+  <si>
+    <t>One of yours prisoners got lazy.\nHe won't work any longer, unless he get motivated.\nMake sure you have enough wardens (check "Work" tab), or draft one of your colonist and order him to stand around your prisoners.</t>
+  </si>
+  <si>
+    <t>Einer deiner Gefangenen ist faul geworden.\nEr wird nicht länger arbeiten, solange er nicht motiviert wird.\nAchte darauf, dass du genug Aufseher hast (schau im Reite "Arbeit" nach) oder ernenne einen deiner Kolonisten und befiehl ihn neben deinen Gefangenen zu stehen.</t>
+  </si>
+  <si>
+    <t>Zum arbeiten zwingen</t>
+  </si>
+  <si>
+    <t>Your prioner got lazy!</t>
+  </si>
+  <si>
+    <t>Dein Gefangener wurde faul!</t>
+  </si>
+  <si>
+    <t>[h1]Description[/h1]
+This mod force prisoners to work if Prisoner Interaction is set to "Work".
+Prisoner must be fed, and rested, or he(she) will refuse to work. Currently prisoners can only cook, mine, cut plants, craft, haul, and clean.
+Attention! He can run away if he mine a way out.
+Prisoners need to be watched by wardens, or they will get lazy.
+This is early alpha version, and it can be buggy.</t>
+  </si>
+  <si>
+    <t>[h1]Beschreibung[/h1]
+Diese Mod zwingt deine Gefangenen zu arbeiten, wenn die Gefangenen-Interaktion auf "Arbeiten" gesetzt ist.
+Gefangene müssen satt und ausgeschlafen sein oder er/sie wird die Arbeit verweigern. Momentan können Gefangene nur kochen, Gestein und Erze abbauen, Pflanzen schneiden, Gegenstände herstellen, transportieren und reinigen.
+Achtung! Sie können fliehen, wenn sie einen Weg nach draußen graben.
+Gefangene müssen von Aufsehern beaufsichtigt werden, sonst werden sie faul.
+Dies ist eine frühe Alpha Version und es kann noch zu Fehlern kommen.</t>
+  </si>
+  <si>
+    <t>Steam Workshop - Compatibility</t>
+  </si>
+  <si>
+    <t>[h1]Compatibility[/h1]
+[list]
+[*] Works with mods that add Jobs of type cook/mine/craft/haul/clean like [url=http://steamcommunity.com/sharedfiles/filedetails/?id=942690136]Quarry[/url], or [url=http://steamcommunity.com/sharedfiles/filedetails/?id=952779481]Haulers Can Haul To Blueprints[/url]
+[*] Works with saves. You can enable, re-enable, disable this mod to all saves. (However disabling mod can throw errors, but they just saying they can't find tutorials, no harm)
+[*] No collisions with other mods detected yet. Only mods that changes thinking of humanlike should be considered (Humanlike_PostDuty handle).
+[/list]
+[list]
+[*] Make prisoner laziness appear on "Needs" tab
+[*] Add translations
+[*] Customize mod to satisfy every user.
+[*] Add control time of work etc.
+[*] Change way of getting food by prisoner (currently RimWorld mechanics forcing prisoner to get to bed and wait for warden unless he is very very hungry) 
+[/list]</t>
+  </si>
+  <si>
+    <t>[h1]Kompatibilität[h1]
+[list]
+[*] Funktioniert mit Mods die Tätigkeiten vom Typ Kochen/Bergbau/Herstellung/Transport/Reinigung wie zum Beispiel [url=http://steamcommunity.com/sharedfiles/filedetails/?id=942690136]Quarry[/url] oder [url=http://steamcommunity.com/sharedfiles/filedetails/?id=952779481]Haulers Can Haul To Blueprints[/url]
+[*] Funktioniert mit bereits vorhandenen Spielständen. Du kannst die Mod für alle Spielstände aktivieren, deaktivieren oder re-aktivieren (Wie immer kann bei der Deaktivierung eines Mods eine Fehlermeldung auftreten, diese besagt jedoch nur, dass ein Tutorial nicht mehr vorhanden ist, keine Sorge).
+[*] Momentan wurden noch keine Komplikationen mit anderen Mods gefunden. Nur Mods die das menschliche Verhalten verändern sollten berücksichtigt werden (Humanlike_PostDuty handle).
+[/list]
+[list]
+[*] Die Faulheit der Gefangenen im Reiter "Bedürfnisse" anzeigen lassen
+[*] Übersetzungen hinzufügen
+[*] Mod-Anpassung um jeden Benutzer zufrieden zu stellen</t>
+  </si>
+  <si>
+    <t>[h1]To-do list[/h1]
+[list]
+[*] Make prisoner laziness appear on "Needs" tab
+[*] Add translations
+[*] Customize mod to satisfy every user.
+[*] Add control time of work etc.
+[*] Change way of getting food by prisoner (currently RimWorld mechanics forcing prisoner to get to bed and wait for warden unless he is very very hungry) 
+[/list]</t>
+  </si>
+  <si>
+    <t>[h1]To-do list[/h1]
+[list]
+[*] Die Faulheit der Gefangenen im Reiter "Bedürfnisse" anzeigen lassen
+[*] Übersetzungen hinzufügen
+[*] Mod-Anpassung um jeden Benutzer zufrieden zu stellen
+[*] Hinzufügen von Arbeitszeiten usw.
+[*] Änderung der Essensversorgung bei Gefangenen ( momentan zwingt Rimworld die Gefangenen dazu sich ins Bett zu legen und auf einen Aufseher zu warten, der sie versorgt.
+[/list]</t>
+  </si>
+  <si>
+    <t>Gefangene motivieren</t>
+  </si>
+  <si>
+    <t>Landwirtschaft bei Gefangenen</t>
+  </si>
+  <si>
+    <t>Management der Gefängnisarbeit</t>
+  </si>
+  <si>
+    <t>Arbeitszone</t>
+  </si>
+  <si>
+    <t>Zum Arbeiten zwingen</t>
+  </si>
+  <si>
+    <t>Markiert einen Bereich "Nur für Gefangene", sodass nur Gefangene in diesem Bereich arbeiten</t>
+  </si>
+  <si>
+    <t>"Nur für Gefangene"</t>
+  </si>
+  <si>
+    <t>Einstellungen</t>
+  </si>
+  <si>
+    <t>Erlaubte Arbeiten:</t>
+  </si>
+  <si>
+    <t>alle erlauben</t>
+  </si>
+  <si>
+    <t>aktiviert</t>
+  </si>
+  <si>
+    <t>Dein Gefangener hat aufgehört zu arbeiten!</t>
+  </si>
+  <si>
+    <t>Motivierungs-Mechaniken</t>
+  </si>
+  <si>
+    <t>Wenn überprüft, werden Kolonisten den Auftrag nicht ausführen</t>
+  </si>
+  <si>
+    <t>Wenn überprüft, müssen Gefangene motiviert werden</t>
+  </si>
+  <si>
+    <t>[h1]To-do list[/h1]
+[url=]Vollständige Liste[/url]
+[url=]Road to beta[/url]</t>
+  </si>
+  <si>
+    <t>Besonderer Dank geht an:</t>
+  </si>
+  <si>
+    <t>Gefangene können nur Pflanzen anpflanzen, die keine besonderen Fähigkeiten benötigen, wie zum Beispiel Kartoffeln oder Baumwolle. Sie können aber natürlich alle Pflanzen einsammeln, die geerntet werden sollen.</t>
+  </si>
+  <si>
+    <t>[h1]Alpha Hinweis[/h1]
+Dies ist eine frühe alpha Version! Einige Features können verändert und viele werden hinzugefügt werden. Es können Bugs oder Kompatibilitätsprobleme auftreten.</t>
+  </si>
+  <si>
+    <t>Die Motivation representiert wie motiviert dein Gefangener ist. Die Motivation kann durch die Anwesenheit eines Kolonisten erhöht werden. \n\nWarnungsansprechschwelle: {0}%\nStoppen der Arbeitsgrenze: {1}%</t>
+  </si>
+  <si>
+    <t>Zeitbeschränkung für Gefangene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[h1]Alpha - Um Gefangene zum Arbeiten zu bringen musst du momentan diese Voraussetzungen erfüllen[/h1]
+[list] 
+[*] Der Gefangene ist sicher und benötigt keine medizinische Versorgung.
+[*] Der Gefangene muss sich nicht von Krankheiten oder Verletzungen erholen.
+[*] Der Gefangene kann nicht fliehen.
+[*] Der Gafangene kann den Arbeitsort erreichen (der beste Weg ist die Türen zur Arbeiterzone offen zu lassen). 
+[*] Der Gefangene ist satt und ausgeruht. 
+[*] Die Gefangenen-Interaktion ist auf "Arbeiten" gesetzt (nicht "Rekrutieren" oder "freundliches Gespräch"). 
+[*] Die Faulheit des Gefangenen im Reiter "Bedürfnisse" liegt unter 80% [/list] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du kannst eine Zeitbeschränkung für Gefangene festlegen.\n\n"Arbeit" Die Arbeitszeit wird sie zum Arbeiten zwingen, auch wenn sie hungrig oder müde sind.\n\n"Freizeit" gibt den Gefangenen die Freiheit sich von der harten Arbeit zu erhohlen und sie bekommen einen Motivations-Bonus.\n\n"Schlafen" zwingt die Gefangenen in ihren Zellen zu bleiben.\n\n"Alles" ist hierbei die Standard-Einstellung. </t>
+  </si>
+  <si>
+    <t>Du kannst deine Gefangenen zum Arbeiten zwingen.\n\n Um dies zu tun, musst du die Option "Zum Arbeiten zwingen" im Reiter "Gefangener" auswählen.\n\nGefangene werden Befehle ausführen und Aufgaben erfüllen, die sich in der erlaubten Zone befinden.Versichere dich, dass die Gefangenen ihre Arbeitsstellen erreichen können.\n\nGefangene können nur kochen, Gestein und Erze abbauen, Pflanzen schneiden, Gegenstände transportieren, reinigen oder auch Pflanzen anbauen, die keine besonderen Fähigkeiten benötigen. \n\nManchmal verweigern Gefangene die Arbeit. Die Gründe dafür können verschieden sein. Er kann verletzt, hungrig, müde oder auch einfach nicht motiviert sein.\n\nHINWEIS: Du kannst verschiedene Arbeiten im Reiter "Arbeit" zuweisen.\n\nHINWEIS: Wenn du einen Herd in einer Gefängniszelle plazierst, achte darauf, dass sie an rohes Essen rankommen.\n\nHINWEIS: Gefangene können durch Türen gehen, wenn sie offen gelassen werden.</t>
+  </si>
+  <si>
+    <t>Du kannst die Gefängnisenarbeit auf verschiedenen Wegen verwalten.\n\nDu kannst verschiedene Arbeiten den Gefangenen über den Reiter "Arbeit" zuweisen.\n\nDu kannst im Reiter "Beschränkung" festlegen wann Gefangene arbeiten, rasten oder schlafen sollen.\n\nDu kannst Arbeiten "Nur für Gefangene" zuweisen. Für Arbeiten, die einen Bereich abdecken, kannst du dazu über den Reiter "Architektur"-&gt;"Befehle" eine "Arbeitszone" errichten.\nFür Aufgaben gibt es die Option "Nur für Gefangene".</t>
+  </si>
+  <si>
+    <t>[h1]Beschreibung[/h1]
+Diese Mod zwingt Gefangene zu arbeiten. Dafür muss die Gefangenen-Interaktion auf "Zum Arbeiten zwingen" gesetzt sein("Gefangener" Tab). Gefängnisarbeit muss verwaltet werden und besteht aus:
+[list]
+[*] Motivation - Gefangene müssen durch die Anwesenheit von Kolonisten motiviert werden. Aufseher haben eine neue Aufgabe - Gefangene überwachen. [strike]Niedrige Motivation kann zu Aufständen führen.[/strike] [i]Aufstände sind zurzeit nicht verfügbar.[/i]
+[*] Arbeitszuordnung - Gefangenen wurde die Option "Zum Arbeiten zwingen" im Reiter "Arbeit" hinzugefügt.
+[*] [strike]Zeitbeschränkung - Gefangenen wurde die Option "Zum Arbeiten zwingen" im Reiter "Beschränkung" hinzugefügt.[/strike] [i]Work in progress ...[/i]
+[*] Gefängniszone - Gefangene mit einem Arbeitsbefehl müssen ihr Ziel erreichen können. Überprüfe die "offen halten" Option an den Türen.
+[*] [strike]"Nur für Gefangene" Tools - Mit diesen Werkzeugen kannst du Befehle und Aufträge markieren, die nur von Gefangenen ausgeführt werden sollen.[/strike] [i]Work in progress ...[/i]
+[/list]</t>
+  </si>
+  <si>
+    <t>Einer deiner Gefangenen hat aufgehört zu arbeiten.\nEr wird nicht länger arbeiten, solange er nicht motiviert wird.\n\n Du kannst die Motivation eines Gefangenen im Reiter "Bedürfnisse" überprüfen.\n\nAchte darauf, dass du genug Aufseher hast (schau im Reiter "Arbeit" nach) oder ernenne einen deiner Kolonisten zum Aufseher und befiehl ihn neben deinen Gefangenen zu stehen.\n\nNiedrige Motivation bei Gefangenen kann zu Aufständen führen.</t>
+  </si>
+  <si>
+    <t>[h1]Beta Hinweis[/h1]
+Dies ist eine beta Version. Einige Aspekte der Mod müssen immer noch gebalanced werden (wie z.B. die Motivation). Es können immer noch ein Paar Bugs auftreten.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,6 +502,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -332,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -662,11 +879,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -687,17 +913,58 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,21 +988,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,20 +996,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,20 +1343,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C67"/>
+  <dimension ref="A2:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="60.875" customWidth="1"/>
     <col min="3" max="3" width="92.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1118,454 +1364,536 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="5" t="s">
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="22" t="s">
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23"/>
-    </row>
-    <row r="6" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="6" t="s">
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="C6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="6" t="s">
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="30" t="s">
+      <c r="C8" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="31"/>
-    </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="6" t="s">
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="C10" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="23"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="6" t="s">
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22" t="s">
+      <c r="C12" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="6" t="s">
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="C14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="6" t="s">
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22" t="s">
+      <c r="C16" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="23"/>
-    </row>
-    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="6" t="s">
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="C18" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="6" t="s">
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22" t="s">
+      <c r="C20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="23"/>
-    </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="6" t="s">
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
+      <c r="C22" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="23"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
+      <c r="C24" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="C26" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="C27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
+      <c r="C28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="C29" s="28"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="C30" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="C31" s="28"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="C32" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+      <c r="C34" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+      <c r="C35" s="28"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="C36" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="8" t="s">
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="12" t="s">
+      <c r="C38" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="8" t="s">
+      <c r="C39" s="28"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="12" t="s">
+      <c r="C40" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="8" t="s">
+      <c r="C41" s="28"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="12" t="s">
+      <c r="C42" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="13"/>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="8" t="s">
+      <c r="C43" s="28"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="12" t="s">
+      <c r="C44" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
+      <c r="B45" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="8" t="s">
+      <c r="C45" s="28"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="12" t="s">
+      <c r="C46" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="13"/>
-    </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="8" t="s">
+      <c r="C47" s="28"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="31"/>
+      <c r="B48" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
+      <c r="C48" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="13"/>
-    </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+      <c r="C49" s="28"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="9"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="C50" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="13"/>
-    </row>
-    <row r="52" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="8" t="s">
+      <c r="C51" s="28"/>
+    </row>
+    <row r="52" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+      <c r="B52" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="17" t="s">
+      <c r="C52" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="35"/>
+      <c r="B53" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="18"/>
-    </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="10" t="s">
+      <c r="C53" s="33"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="35"/>
+      <c r="B54" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="11"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="17" t="s">
+      <c r="C54" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
+      <c r="B55" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="18"/>
-    </row>
-    <row r="56" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="10" t="s">
+      <c r="C55" s="33"/>
+    </row>
+    <row r="56" spans="1:4" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
+      <c r="B56" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="11"/>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="17" t="s">
+      <c r="C56" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
+      <c r="B57" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="18"/>
-    </row>
-    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="10" t="s">
+      <c r="C57" s="33"/>
+    </row>
+    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="35"/>
+      <c r="B58" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="11"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="17" t="s">
+      <c r="C58" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="35"/>
+      <c r="B59" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="18"/>
-    </row>
-    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="10" t="s">
+      <c r="C59" s="33"/>
+    </row>
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="11"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="17" t="s">
+      <c r="C60" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="35"/>
+      <c r="B61" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="18"/>
-    </row>
-    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="10" t="s">
+      <c r="C61" s="33"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="35"/>
+      <c r="B62" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="11"/>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="17" t="s">
+      <c r="C62" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="35"/>
+      <c r="B63" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="18"/>
-    </row>
-    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="10" t="s">
+      <c r="C63" s="33"/>
+    </row>
+    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="35"/>
+      <c r="B64" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="11"/>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="17" t="s">
+      <c r="C64" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="35"/>
+      <c r="B65" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="18"/>
-    </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" s="10" t="s">
+      <c r="C65" s="33"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="35"/>
+      <c r="B66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="11"/>
-    </row>
-    <row r="67" spans="1:3" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26"/>
+      <c r="C66" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="15"/>
+    </row>
+    <row r="67" spans="1:4" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="36"/>
       <c r="B67" s="7"/>
       <c r="C67" s="1" t="s">
         <v>10</v>
@@ -1573,12 +1901,23 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A51:A67"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
@@ -1595,26 +1934,210 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A51:A67"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="400" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="23"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="38"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="1:3" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="38"/>
+    </row>
+    <row r="20" spans="1:3" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>